--- a/results/training_time_statistics_regularized.xlsx
+++ b/results/training_time_statistics_regularized.xlsx
@@ -467,23 +467,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>223.53227186203</v>
+        <v>469.0027611255646</v>
       </c>
       <c r="B2" t="n">
-        <v>3.725537864367167</v>
+        <v>7.816712685426077</v>
       </c>
       <c r="C2" t="n">
-        <v>111.760237455368</v>
+        <v>66.99849888256618</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5368352363638443</v>
+        <v>0.895517115916413</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.5 epochs/min</t>
+          <t>0.9 epochs/min</t>
         </is>
       </c>
     </row>

--- a/results/training_time_statistics_regularized.xlsx
+++ b/results/training_time_statistics_regularized.xlsx
@@ -467,23 +467,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>469.0027611255646</v>
+        <v>1172.823553800583</v>
       </c>
       <c r="B2" t="n">
-        <v>7.816712685426077</v>
+        <v>19.54705923000972</v>
       </c>
       <c r="C2" t="n">
-        <v>66.99849888256618</v>
+        <v>23.45332653045654</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>0.895517115916413</v>
+        <v>2.557929528511238</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.9 epochs/min</t>
+          <t>2.6 epochs/min</t>
         </is>
       </c>
     </row>
